--- a/data/lrt.xlsx
+++ b/data/lrt.xlsx
@@ -59,7 +59,7 @@
     <t xml:space="preserve">GEN:ME:YEAR</t>
   </si>
   <si>
-    <t xml:space="preserve">REP2:(ME:YEAR)</t>
+    <t xml:space="preserve">REP:(ME:YEAR)</t>
   </si>
   <si>
     <t xml:space="preserve">ME:YEAR</t>

--- a/data/lrt.xlsx
+++ b/data/lrt.xlsx
@@ -466,31 +466,31 @@
         <v>11</v>
       </c>
       <c r="B3" t="n">
-        <v>0.162311935108784</v>
+        <v>0.162311933255385</v>
       </c>
       <c r="C3" t="n">
-        <v>0.000115840917311994</v>
+        <v>0.000115840916376394</v>
       </c>
       <c r="D3" t="n">
-        <v>0.00197643992011392</v>
+        <v>0.00197644005930986</v>
       </c>
       <c r="E3" t="n">
-        <v>0.0000000281063180317479</v>
+        <v>0.0000000281063162061376</v>
       </c>
       <c r="F3" t="n">
-        <v>0.0000238077200373589</v>
+        <v>0.0000238077205011743</v>
       </c>
       <c r="G3" t="n">
-        <v>0.0281841505391825</v>
+        <v>0.0281841474980496</v>
       </c>
       <c r="H3" t="n">
-        <v>0.313119517858727</v>
+        <v>0.313119523201821</v>
       </c>
       <c r="I3" t="n">
-        <v>0.000000123403766479151</v>
+        <v>0.000000123403775131413</v>
       </c>
       <c r="J3" t="n">
-        <v>0.00000030937211751624</v>
+        <v>0.00000030937209977611</v>
       </c>
     </row>
     <row r="4">
@@ -498,31 +498,31 @@
         <v>12</v>
       </c>
       <c r="B4" t="n">
-        <v>0.897889366516353</v>
+        <v>0.897889510267968</v>
       </c>
       <c r="C4" t="n">
-        <v>0.485958180064356</v>
+        <v>0.485957041977927</v>
       </c>
       <c r="D4" t="n">
-        <v>1</v>
+        <v>0.999738556015067</v>
       </c>
       <c r="E4" t="n">
-        <v>1</v>
+        <v>0.999757560649461</v>
       </c>
       <c r="F4" t="n">
-        <v>1</v>
+        <v>0.999670999997404</v>
       </c>
       <c r="G4" t="n">
-        <v>0.400762343315792</v>
+        <v>0.400762685359221</v>
       </c>
       <c r="H4" t="n">
-        <v>0.999857157285146</v>
+        <v>0.999691978814345</v>
       </c>
       <c r="I4" t="n">
-        <v>0.998750145395397</v>
+        <v>0.998814118187522</v>
       </c>
       <c r="J4" t="n">
-        <v>0.733195146602149</v>
+        <v>0.73320368133227</v>
       </c>
     </row>
     <row r="5">
@@ -594,31 +594,31 @@
         <v>15</v>
       </c>
       <c r="B7" t="n">
-        <v>0.00000000000000000000000000000000000000000000000000000240173411378531</v>
+        <v>0.00000000000000000000000000000000000000000000000000000240173411254058</v>
       </c>
       <c r="C7" t="n">
-        <v>0.000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000692132278615213</v>
+        <v>0.000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000695694170836267</v>
       </c>
       <c r="D7" t="n">
-        <v>0.000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000286401503313395</v>
+        <v>0.000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000286401504682406</v>
       </c>
       <c r="E7" t="n">
-        <v>0.000000000000000000349401437737823</v>
+        <v>0.00000000000000000034940145628518</v>
       </c>
       <c r="F7" t="n">
-        <v>0.00000000000000000000000000000000000000000000000000000000000000000000000000000000309995796171707</v>
+        <v>0.00000000000000000000000000000000000000000000000000000000000000000000000000000000309995772436587</v>
       </c>
       <c r="G7" t="n">
-        <v>0.000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000342038337387597</v>
+        <v>0.000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000342038275937573</v>
       </c>
       <c r="H7" t="n">
-        <v>0.0000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000071018378507126</v>
+        <v>0.00000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000710183728766713</v>
       </c>
       <c r="I7" t="n">
-        <v>2.89871173544277e-220</v>
+        <v>2.89871221343944e-220</v>
       </c>
       <c r="J7" t="n">
-        <v>0.00000000000000000000000000000000000000000000000000000000000000000000000297361090238805</v>
+        <v>0.00000000000000000000000000000000000000000000000000000000000000000000000297361167179557</v>
       </c>
     </row>
     <row r="8">
